--- a/document/课件相关/成员通讯录.xlsx
+++ b/document/课件相关/成员通讯录.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caojunyi/Documents/小学期/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caojunyi/Documents/GitHub/BlockChain/document/课件相关/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCDC25D9-6F84-1A40-92B5-A637CB6F2608}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36C4629-AE1B-BD4D-A39E-FC258B905E3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{87EDA1D0-D936-0C4E-9EDE-E380B90574D7}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" xr2:uid="{87EDA1D0-D936-0C4E-9EDE-E380B90574D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>职责</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,6 +97,26 @@
   </si>
   <si>
     <t>美工总监、需求助理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08111606</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08111603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08111602</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -155,11 +175,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -167,7 +190,11 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -181,13 +208,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1D09144C-380C-CA4A-8464-EF2C3BB1D50D}" name="表3" displayName="表3" ref="A1:D6" totalsRowShown="0">
-  <autoFilter ref="A1:D6" xr:uid="{29F499C8-D36F-5047-81E7-417DC04E9B6F}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1D09144C-380C-CA4A-8464-EF2C3BB1D50D}" name="表3" displayName="表3" ref="A1:F6" totalsRowShown="0">
+  <autoFilter ref="A1:F6" xr:uid="{29F499C8-D36F-5047-81E7-417DC04E9B6F}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{54840CE3-841C-BE49-81B6-CE7464B8A005}" name="职责"/>
     <tableColumn id="2" xr3:uid="{256FDDBB-EF89-8A46-A26D-6FE488389989}" name="姓名"/>
     <tableColumn id="3" xr3:uid="{C0826894-45AC-5E4D-B684-D73EF5749D4A}" name="电话"/>
     <tableColumn id="4" xr3:uid="{F3B2C5D7-EA0B-BB47-85B8-F080367AFEF6}" name="邮箱"/>
+    <tableColumn id="5" xr3:uid="{06F61588-D7E0-7048-8F85-82EA22F0AFFF}" name="学号"/>
+    <tableColumn id="6" xr3:uid="{4A090808-71BC-5C49-B66F-AA5E25E034DD}" name="班级" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -490,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE600A82-A636-C546-88BA-EAD951AFAB1C}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -501,9 +530,11 @@
     <col min="1" max="1" width="28.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.1640625" customWidth="1"/>
     <col min="4" max="4" width="26.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" customHeight="1">
+    <row r="1" spans="1:6" ht="21" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -516,8 +547,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -530,8 +567,14 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E2">
+        <v>1120162038</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -544,8 +587,14 @@
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="E3">
+        <v>1120161943</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -558,8 +607,14 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
+      <c r="E4">
+        <v>1120161912</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -572,8 +627,14 @@
       <c r="D5" t="s">
         <v>13</v>
       </c>
+      <c r="E5">
+        <v>1120161920</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -585,6 +646,12 @@
       </c>
       <c r="D6" t="s">
         <v>15</v>
+      </c>
+      <c r="E6">
+        <v>1120161968</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/document/课件相关/成员通讯录.xlsx
+++ b/document/课件相关/成员通讯录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caojunyi/Documents/GitHub/BlockChain/document/课件相关/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36C4629-AE1B-BD4D-A39E-FC258B905E3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963EA95C-1091-5348-A166-0D83DA42CD15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" xr2:uid="{87EDA1D0-D936-0C4E-9EDE-E380B90574D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{87EDA1D0-D936-0C4E-9EDE-E380B90574D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>职责</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +117,34 @@
   </si>
   <si>
     <t>08111602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责规划项目整体进度安排、风险把控，及项目的需求分析。
+同时作为后端开发人员参与系统的编码实现过程，并且负责系统的最终打包上线工作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据需求分析中的功能概述与原型界面设计绘制系统界面UI图，系统的界面规划与展现形式需与前端开发负责人金晨做好对接确认。
+同时赵梓清作为需求分析助理参与需求分析工作中，协助曹俊燚开展工作，并编写最终的系统用户说明手册。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做好与美工总监的界面设计对接确认工作，确定系统前端技术架构选型与展现形式，协调规划好前端各模块的编码工作。同时金晨作为测试人员参与各模块功能测试与系统的最终测试工作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定系统关键实现技术的选型与架构设计，包括数据结构、数据库方案设计，负责前端与后端的整体开发进度规划安排，协调各模块之间的联调测试，组织好前后台之间的系统对接工作。
+同时侯添久作为后端开发人员参与系统的编码实现过程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助前后端开发人员完成接口联调对接工作，负责各模块的功能测试工作，负责系统的整体测试上线工作。
+同时卢茜君作为后端开发人员参与系统的编码实现过程。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,7 +203,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -184,6 +212,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -208,15 +239,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1D09144C-380C-CA4A-8464-EF2C3BB1D50D}" name="表3" displayName="表3" ref="A1:F6" totalsRowShown="0">
-  <autoFilter ref="A1:F6" xr:uid="{29F499C8-D36F-5047-81E7-417DC04E9B6F}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{54840CE3-841C-BE49-81B6-CE7464B8A005}" name="职责"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1D09144C-380C-CA4A-8464-EF2C3BB1D50D}" name="表3" displayName="表3" ref="A1:G6" totalsRowShown="0">
+  <autoFilter ref="A1:G6" xr:uid="{29F499C8-D36F-5047-81E7-417DC04E9B6F}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{54840CE3-841C-BE49-81B6-CE7464B8A005}" name="角色"/>
     <tableColumn id="2" xr3:uid="{256FDDBB-EF89-8A46-A26D-6FE488389989}" name="姓名"/>
     <tableColumn id="3" xr3:uid="{C0826894-45AC-5E4D-B684-D73EF5749D4A}" name="电话"/>
     <tableColumn id="4" xr3:uid="{F3B2C5D7-EA0B-BB47-85B8-F080367AFEF6}" name="邮箱"/>
     <tableColumn id="5" xr3:uid="{06F61588-D7E0-7048-8F85-82EA22F0AFFF}" name="学号"/>
     <tableColumn id="6" xr3:uid="{4A090808-71BC-5C49-B66F-AA5E25E034DD}" name="班级" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{76441369-C1A9-154A-801F-55FB7737E355}" name="职责"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -519,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE600A82-A636-C546-88BA-EAD951AFAB1C}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -532,11 +564,12 @@
     <col min="4" max="4" width="26.6640625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="12.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="83.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" customHeight="1">
+    <row r="1" spans="1:7" ht="21" customHeight="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -553,8 +586,11 @@
       <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" ht="50" customHeight="1">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -573,8 +609,11 @@
       <c r="F2" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="G2" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7" ht="51">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -593,8 +632,11 @@
       <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="G3" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7" ht="51">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -613,8 +655,11 @@
       <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="G4" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7" ht="51">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -633,8 +678,11 @@
       <c r="F5" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="G5" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7" ht="68">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -652,6 +700,9 @@
       </c>
       <c r="F6" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
